--- a/Utils/menuExcToHtml.xlsx
+++ b/Utils/menuExcToHtml.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bedoz\Desktop\VCBProj0.0.0.1\Utils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bedoz\Desktop\CodingProjects\VCwebsite\Utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A873E790-D7B4-4465-ADA5-C25EF687B5BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83646479-0C7D-40A3-A739-EB45901A6D6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27105" windowHeight="12810" xr2:uid="{F80E1D2D-14DA-476C-BCA4-096EF2662374}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="176">
   <si>
     <t>Le Classiche</t>
   </si>
@@ -298,6 +298,261 @@
   </si>
   <si>
     <t xml:space="preserve">HTML ver1 (tr nome/prezzo tr desc) </t>
+  </si>
+  <si>
+    <t>Mericana</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Peperoni - Salame Piccante - Wurstel - Salsiccia - Funghi Trifolati</t>
+  </si>
+  <si>
+    <t>Milanese</t>
+  </si>
+  <si>
+    <t>BASE BIANCA: Salame Milano - Funghi Chiodini - Gorgonzola</t>
+  </si>
+  <si>
+    <t>Misteriosa</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Funghi Freschi - Pomodorini - Rucola</t>
+  </si>
+  <si>
+    <t>Montanara</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Gorgonzola - Porcini - Speck</t>
+  </si>
+  <si>
+    <t>Ortolana</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Radicchio - Funghi Freschi - Pomodorini - Patate - Melanzane - Zucchine</t>
+  </si>
+  <si>
+    <t>Parmigiana</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Grana in cottura - Melanzane - Prosciutto Cotto</t>
+  </si>
+  <si>
+    <t>Passeggiata</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA e fuori forno: Funghi Freschi - Pomodorini - Radicchio - Rucola - Grana - Pinoli - Condimento</t>
+  </si>
+  <si>
+    <t>Passeggiata Super</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA e fuori forno: Funghi Freschi - Pomodorini - Radicchio - Rucola - Grana - Pinoli - Condimento - Bufala - Bresaola</t>
+  </si>
+  <si>
+    <t>Passeggiata Vegana</t>
+  </si>
+  <si>
+    <t>BASE ROSSA con impasto al Farro e fuori forno: Funghi Freschi - Pomodorini - Radicchio - Rucola - Pinoli - Condimento</t>
+  </si>
+  <si>
+    <t>Pineta</t>
+  </si>
+  <si>
+    <t>Poker funghi</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Funghi Freschi - Chiodini - Trifolati - Porcini</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Funghi Freschi - Prosciutto Cotto - Porcini - Salsiccia - Pinoli</t>
+  </si>
+  <si>
+    <t>Puzzanesca</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Pomodori Secchi - Olive Taggiasche - Cipolla Rossa - Capperi - Olio alla Marinara</t>
+  </si>
+  <si>
+    <t>Romantica</t>
+  </si>
+  <si>
+    <t>BASE BIANCA: Stracchino - Crudo - Rucola</t>
+  </si>
+  <si>
+    <t>Salinara</t>
+  </si>
+  <si>
+    <t>BASE BIANCA:  Acciughe - Capperi - Olive - Pomodorini - Crudo</t>
+  </si>
+  <si>
+    <t>San Michele</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Bufala - Porcini - Crudo</t>
+  </si>
+  <si>
+    <t>Sobria</t>
+  </si>
+  <si>
+    <t>BASE SCHIACCIATINA: Brie - Melanzane - Bresaola</t>
+  </si>
+  <si>
+    <t>Solitaria</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Funghi Trifolati - Patate - Salsiccia - Olio alla Marinara</t>
+  </si>
+  <si>
+    <t>Succulenta</t>
+  </si>
+  <si>
+    <t>BASE BIANCA: Funghi Freschi - Melanzane - Gorgonzola - Salsiccia</t>
+  </si>
+  <si>
+    <t>Tedesca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASE MARGHERITA: Patate - Wurstel - Salsiccia - Cipolla </t>
+  </si>
+  <si>
+    <t>Tomina</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Radicchio - Brie - Pomodorini - Speck - Grana</t>
+  </si>
+  <si>
+    <t>Tricolore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BASE MARGHERITA e fuori forno: Bufala - Pomodorini - Basilico </t>
+  </si>
+  <si>
+    <t>Tropeana</t>
+  </si>
+  <si>
+    <t>BASE BIANCA: Olive Taggiasche - Pomodorini - Capperi - Cipolla Rossa fuori forno</t>
+  </si>
+  <si>
+    <t>Tyron</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Stracchino - Pomodorini - Speck - Rucola</t>
+  </si>
+  <si>
+    <t>Vecchia Cervia</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Radicchio - Porcini - Scamorza - Salame Piccante</t>
+  </si>
+  <si>
+    <t>Vegana</t>
+  </si>
+  <si>
+    <t>BASE ROSSA con impasto al Farro: Olive Taggiasche - Melanzane - Capperi - Rucola</t>
+  </si>
+  <si>
+    <t>Veggy</t>
+  </si>
+  <si>
+    <t>BASE ROSSA: Funghi Chiodini - Friarielli - Pomodori Secchi</t>
+  </si>
+  <si>
+    <t>Venale</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Grana - Crudo - Rucola</t>
+  </si>
+  <si>
+    <t>Verdure Grigliate</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Peperoni - Patate - Melanzane - Zucchine</t>
+  </si>
+  <si>
+    <t>Le Dolci</t>
+  </si>
+  <si>
+    <t>Schiacciatina Nutella</t>
+  </si>
+  <si>
+    <t>BASE SCHIACCIATINA non condita: Nutella</t>
+  </si>
+  <si>
+    <t>Schiacciatina Nutella e Cocco</t>
+  </si>
+  <si>
+    <t>BASE SCHIACCIATINA non condita: Nutella e cocco rapè</t>
+  </si>
+  <si>
+    <t>Schiacciatina Mou al Sale e Ananas</t>
+  </si>
+  <si>
+    <t>BASE SCHIACCIATINA non condita: Caramello Mou al Sale e Ananas</t>
+  </si>
+  <si>
+    <t>Le Doppio Impasto</t>
+  </si>
+  <si>
+    <t>Grabbs</t>
+  </si>
+  <si>
+    <t>BASE BIANCA: Gorgonzola - Tomino - Scamorza - Patate - Speck in cottura</t>
+  </si>
+  <si>
+    <t>Air Max</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Gorgonzola - Patate - Peperoni - Funghi Freschi - Salame Piccante - Origano - Salsa Piccante</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>BASE ROSSA: Bufala - Pomodorini - Capperi - Origano</t>
+  </si>
+  <si>
+    <t>Maronno</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Friarielli - Scamorza - Salame Piccante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lo Fanno </t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Peperoni - Funghi Freschi - Salsiccia - Pancetta</t>
+  </si>
+  <si>
+    <t>Cribbio</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Salame Milano - Funghi Chiodini - Scamorza - Brie</t>
+  </si>
+  <si>
+    <t>La Boe</t>
+  </si>
+  <si>
+    <t>BASE ROSSA: Bufala fuori forno - Basilico - Olio di Oliva</t>
+  </si>
+  <si>
+    <t>La Crossfit</t>
+  </si>
+  <si>
+    <t>BASE BIANCA con Farina Grano Khorasan: Stracchino - Bresaola - Grana - Pinoli</t>
+  </si>
+  <si>
+    <t>Variazioni</t>
+  </si>
+  <si>
+    <t>Pizza Baby</t>
+  </si>
+  <si>
+    <t>Pizza Doppio Impasto</t>
+  </si>
+  <si>
+    <t>Pizza con farina al Farro Integrale</t>
+  </si>
+  <si>
+    <t>Pizza con farina Grano Khorasan</t>
   </si>
 </sst>
 </file>
@@ -306,7 +561,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -380,21 +635,21 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -709,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597202A8-C792-4049-8C78-72759020BD37}">
-  <dimension ref="B1:I71"/>
+  <dimension ref="B1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,17 +981,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="F1" s="9" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="F1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
@@ -754,20 +1009,20 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="D3" s="8">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="str">
         <f>B3</f>
-        <v>7 Crociari</v>
+        <v>Grabbs</v>
       </c>
       <c r="I3" t="s">
         <v>36</v>
@@ -775,20 +1030,20 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="D4" s="8">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="1">
         <f>D3</f>
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="I4" t="s">
         <v>36</v>
@@ -796,10 +1051,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>55</v>
+        <v>159</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="D5" s="8">
         <v>9</v>
@@ -810,13 +1065,13 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>58</v>
+        <v>162</v>
       </c>
       <c r="D6" s="8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -824,20 +1079,20 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>59</v>
+        <v>163</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="D7" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
         <v>38</v>
       </c>
       <c r="H7" t="str">
         <f>C3</f>
-        <v>BASE MARGHERITA: Salame piccante - Porcini - Gorgonzola</v>
+        <v>BASE BIANCA: Gorgonzola - Tomino - Scamorza - Patate - Speck in cottura</v>
       </c>
       <c r="I7" t="s">
         <v>36</v>
@@ -845,13 +1100,13 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>62</v>
+        <v>166</v>
       </c>
       <c r="D8" s="8">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="F8" t="s">
         <v>39</v>
@@ -859,13 +1114,13 @@
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="D9" s="8">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
@@ -873,56 +1128,44 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>66</v>
+        <v>170</v>
       </c>
       <c r="D10" s="8">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
       </c>
       <c r="H10" t="str">
         <f>B4</f>
-        <v>Boscaiola</v>
+        <v>Air Max</v>
       </c>
       <c r="I10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="8">
-        <v>8</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="1">
         <f>D4</f>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="I11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="8">
-        <v>8</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
       <c r="F12" t="s">
         <v>39</v>
       </c>
@@ -938,7 +1181,7 @@
       </c>
       <c r="H14" t="str">
         <f>C4</f>
-        <v>BASE MARGHERITA: Pancetta - Porcini - Salsiccia - Grana</v>
+        <v>BASE MARGHERITA: Gorgonzola - Patate - Peperoni - Funghi Freschi - Salame Piccante - Origano - Salsa Piccante</v>
       </c>
       <c r="I14" t="s">
         <v>36</v>
@@ -960,7 +1203,7 @@
       </c>
       <c r="H17" t="str">
         <f>B5</f>
-        <v>Brasata</v>
+        <v>Alice</v>
       </c>
       <c r="I17" t="s">
         <v>36</v>
@@ -995,7 +1238,7 @@
       </c>
       <c r="H21" t="str">
         <f>C5</f>
-        <v>BASE MARGHERITA: Pomodorini - Grana - Rucola - Bresaola</v>
+        <v>BASE ROSSA: Bufala - Pomodorini - Capperi - Origano</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>
@@ -1007,25 +1250,25 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="F23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="G24" t="s">
         <v>35</v>
       </c>
       <c r="H24" t="str">
         <f>B6</f>
-        <v>Calzonissimo</v>
+        <v>Maronno</v>
       </c>
       <c r="I24" t="s">
         <v>36</v>
@@ -1046,7 +1289,7 @@
       </c>
       <c r="H25" s="2">
         <f>D6</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I25" t="s">
         <v>36</v>
@@ -1095,7 +1338,7 @@
       </c>
       <c r="H28" t="str">
         <f>C6</f>
-        <v>BASE BIANCA: Stracchino - Salame piccante - Funghi chiodini - Scamorza</v>
+        <v>BASE MARGHERITA: Friarielli - Scamorza - Salame Piccante</v>
       </c>
       <c r="I28" t="s">
         <v>36</v>
@@ -1144,7 +1387,7 @@
       </c>
       <c r="H31" t="str">
         <f>B7</f>
-        <v>Chang Mai</v>
+        <v xml:space="preserve">Lo Fanno </v>
       </c>
       <c r="I31" t="s">
         <v>36</v>
@@ -1165,7 +1408,7 @@
       </c>
       <c r="H32" s="2">
         <f>D7</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I32" t="s">
         <v>36</v>
@@ -1214,7 +1457,7 @@
       </c>
       <c r="H35" t="str">
         <f>C7</f>
-        <v>BASE MARGHERITA: Gorgonzola - Melanzane - Salame piccante - Salsa piccante</v>
+        <v>BASE MARGHERITA: Peperoni - Funghi Freschi - Salsiccia - Pancetta</v>
       </c>
       <c r="I35" t="s">
         <v>36</v>
@@ -1263,7 +1506,7 @@
       </c>
       <c r="H38" t="str">
         <f>B8</f>
-        <v>Ciccio</v>
+        <v>Cribbio</v>
       </c>
       <c r="I38" t="s">
         <v>36</v>
@@ -1284,7 +1527,7 @@
       </c>
       <c r="H39" s="2">
         <f>D8</f>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="I39" t="s">
         <v>36</v>
@@ -1319,13 +1562,13 @@
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="10">
         <v>6.5</v>
       </c>
       <c r="G42" t="s">
@@ -1333,20 +1576,20 @@
       </c>
       <c r="H42" t="str">
         <f>C8</f>
-        <v>BASE MARGHERITA: Melanzane - Crudo in cottura - Gorgonzola - Capperi</v>
+        <v>BASE MARGHERITA: Salame Milano - Funghi Chiodini - Scamorza - Brie</v>
       </c>
       <c r="I42" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="10">
         <v>7</v>
       </c>
       <c r="F43" t="s">
@@ -1354,13 +1597,13 @@
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="10">
         <v>8</v>
       </c>
       <c r="F44" t="s">
@@ -1368,32 +1611,32 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
       <c r="G45" t="s">
         <v>35</v>
       </c>
       <c r="H45" t="str">
         <f>B9</f>
-        <v>Cucciola</v>
+        <v>La Boe</v>
       </c>
       <c r="I45" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
       <c r="G46" t="s">
         <v>37</v>
       </c>
       <c r="H46" s="2">
         <f>D9</f>
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="I46" t="s">
         <v>36</v>
@@ -1442,7 +1685,7 @@
       </c>
       <c r="H49" t="str">
         <f>C9</f>
-        <v>BASE BIANCA: Tonno - Cipolla - Pomodorini - Olive Taggiasche</v>
+        <v>BASE ROSSA: Bufala fuori forno - Basilico - Olio di Oliva</v>
       </c>
       <c r="I49" t="s">
         <v>36</v>
@@ -1491,7 +1734,7 @@
       </c>
       <c r="H52" t="str">
         <f>B10</f>
-        <v>Dosanco</v>
+        <v>La Crossfit</v>
       </c>
       <c r="I52" t="s">
         <v>36</v>
@@ -1512,7 +1755,7 @@
       </c>
       <c r="H53" s="2">
         <f>D10</f>
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="I53" t="s">
         <v>36</v>
@@ -1561,7 +1804,7 @@
       </c>
       <c r="H56" t="str">
         <f>C10</f>
-        <v>BASE BIANCA: Friarielli - Salsiccia</v>
+        <v>BASE BIANCA con Farina Grano Khorasan: Stracchino - Bresaola - Grana - Pinoli</v>
       </c>
       <c r="I56" t="s">
         <v>36</v>
@@ -1608,9 +1851,9 @@
       <c r="G59" t="s">
         <v>35</v>
       </c>
-      <c r="H59" t="str">
+      <c r="H59">
         <f>B11</f>
-        <v>Estiva</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
         <v>36</v>
@@ -1631,7 +1874,7 @@
       </c>
       <c r="H60" s="2">
         <f>D11</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I60" t="s">
         <v>36</v>
@@ -1678,9 +1921,9 @@
       <c r="G63" t="s">
         <v>38</v>
       </c>
-      <c r="H63" t="str">
+      <c r="H63">
         <f>C11</f>
-        <v>BASE MARGHERITA e fuori forno: Pomodorini - Tonno - Rucola</v>
+        <v>0</v>
       </c>
       <c r="I63" t="s">
         <v>36</v>
@@ -1715,62 +1958,550 @@
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D66" s="8">
+        <v>9</v>
+      </c>
       <c r="G66" t="s">
         <v>35</v>
       </c>
-      <c r="H66" t="str">
+      <c r="H66">
         <f>B12</f>
-        <v>Gildo</v>
+        <v>0</v>
       </c>
       <c r="I66" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="8">
+        <v>8.5</v>
+      </c>
       <c r="G67" t="s">
         <v>37</v>
       </c>
       <c r="H67" s="2">
         <f>D12</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I67" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="8">
+        <v>7.5</v>
+      </c>
       <c r="F68" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D69" s="8">
+        <v>9</v>
+      </c>
       <c r="F69" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" s="8">
+        <v>8</v>
+      </c>
       <c r="G70" t="s">
         <v>38</v>
       </c>
-      <c r="H70" t="str">
+      <c r="H70">
         <f>C12</f>
-        <v>BASE ROSSA con Peperoni e fuori forno: Bufala - Tropea - Basilico</v>
+        <v>0</v>
       </c>
       <c r="I70" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D71" s="8">
+        <v>8</v>
+      </c>
       <c r="F71" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D72" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" s="8">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D75" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" s="8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D77" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" s="8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="8">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D81" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D83" s="8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84" s="8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D85" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86" s="8">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D87" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D89" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D90" s="8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D91" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D92" s="8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D93" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D98" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D101" s="8">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D102" s="8">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D104" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D105" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D106" s="8">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D107" s="8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D108" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D111" s="8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D112" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D113" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D114" s="8">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="B109:D110"/>
     <mergeCell ref="B23:D24"/>
     <mergeCell ref="B45:D46"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B94:D95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Utils/menuExcToHtml.xlsx
+++ b/Utils/menuExcToHtml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bedoz\Desktop\CodingProjects\VCwebsite\Utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83646479-0C7D-40A3-A739-EB45901A6D6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0741D1E4-86AD-49AD-8DFB-4EFD1EC110AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27105" windowHeight="12810" xr2:uid="{F80E1D2D-14DA-476C-BCA4-096EF2662374}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="176">
   <si>
     <t>Le Classiche</t>
   </si>
@@ -966,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597202A8-C792-4049-8C78-72759020BD37}">
   <dimension ref="B1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,20 +1009,17 @@
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D3" s="8">
-        <v>10.5</v>
+        <v>-1</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
       </c>
       <c r="H3" t="str">
         <f>B3</f>
-        <v>Grabbs</v>
+        <v>Pizza Baby</v>
       </c>
       <c r="I3" t="s">
         <v>36</v>
@@ -1030,20 +1027,17 @@
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="D4" s="8">
-        <v>10.5</v>
+        <v>1.5</v>
       </c>
       <c r="G4" t="s">
         <v>37</v>
       </c>
       <c r="H4" s="1">
         <f>D3</f>
-        <v>10.5</v>
+        <v>-1</v>
       </c>
       <c r="I4" t="s">
         <v>36</v>
@@ -1051,13 +1045,10 @@
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D5" s="8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1065,83 +1056,56 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D6" s="8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="8">
-        <v>10</v>
-      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
       <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" t="str">
+      <c r="H7">
         <f>C3</f>
-        <v>BASE BIANCA: Gorgonzola - Tomino - Scamorza - Patate - Speck in cottura</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D8" s="8">
-        <v>10.5</v>
-      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
       <c r="F8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="8">
-        <v>8.5</v>
-      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
       <c r="F9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="8">
-        <v>12</v>
-      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
       <c r="G10" t="s">
         <v>35</v>
       </c>
       <c r="H10" t="str">
         <f>B4</f>
-        <v>Air Max</v>
+        <v>Pizza Doppio Impasto</v>
       </c>
       <c r="I10" t="s">
         <v>36</v>
@@ -1156,7 +1120,7 @@
       </c>
       <c r="H11" s="1">
         <f>D4</f>
-        <v>10.5</v>
+        <v>1.5</v>
       </c>
       <c r="I11" t="s">
         <v>36</v>
@@ -1179,9 +1143,9 @@
       <c r="G14" t="s">
         <v>38</v>
       </c>
-      <c r="H14" t="str">
+      <c r="H14">
         <f>C4</f>
-        <v>BASE MARGHERITA: Gorgonzola - Patate - Peperoni - Funghi Freschi - Salame Piccante - Origano - Salsa Piccante</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
         <v>36</v>
@@ -1203,7 +1167,7 @@
       </c>
       <c r="H17" t="str">
         <f>B5</f>
-        <v>Alice</v>
+        <v>Pizza con farina al Farro Integrale</v>
       </c>
       <c r="I17" t="s">
         <v>36</v>
@@ -1215,7 +1179,7 @@
       </c>
       <c r="H18" s="1">
         <f>D5</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I18" t="s">
         <v>36</v>
@@ -1236,9 +1200,9 @@
       <c r="G21" t="s">
         <v>38</v>
       </c>
-      <c r="H21" t="str">
+      <c r="H21">
         <f>C5</f>
-        <v>BASE ROSSA: Bufala - Pomodorini - Capperi - Origano</v>
+        <v>0</v>
       </c>
       <c r="I21" t="s">
         <v>36</v>
@@ -1268,7 +1232,7 @@
       </c>
       <c r="H24" t="str">
         <f>B6</f>
-        <v>Maronno</v>
+        <v>Pizza con farina Grano Khorasan</v>
       </c>
       <c r="I24" t="s">
         <v>36</v>
@@ -1289,7 +1253,7 @@
       </c>
       <c r="H25" s="2">
         <f>D6</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
         <v>36</v>
@@ -1336,9 +1300,9 @@
       <c r="G28" t="s">
         <v>38</v>
       </c>
-      <c r="H28" t="str">
+      <c r="H28">
         <f>C6</f>
-        <v>BASE MARGHERITA: Friarielli - Scamorza - Salame Piccante</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
         <v>36</v>
@@ -1385,9 +1349,9 @@
       <c r="G31" t="s">
         <v>35</v>
       </c>
-      <c r="H31" t="str">
+      <c r="H31">
         <f>B7</f>
-        <v xml:space="preserve">Lo Fanno </v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
         <v>36</v>
@@ -1408,7 +1372,7 @@
       </c>
       <c r="H32" s="2">
         <f>D7</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I32" t="s">
         <v>36</v>
@@ -1455,9 +1419,9 @@
       <c r="G35" t="s">
         <v>38</v>
       </c>
-      <c r="H35" t="str">
+      <c r="H35">
         <f>C7</f>
-        <v>BASE MARGHERITA: Peperoni - Funghi Freschi - Salsiccia - Pancetta</v>
+        <v>0</v>
       </c>
       <c r="I35" t="s">
         <v>36</v>
@@ -1504,9 +1468,9 @@
       <c r="G38" t="s">
         <v>35</v>
       </c>
-      <c r="H38" t="str">
+      <c r="H38">
         <f>B8</f>
-        <v>Cribbio</v>
+        <v>0</v>
       </c>
       <c r="I38" t="s">
         <v>36</v>
@@ -1527,7 +1491,7 @@
       </c>
       <c r="H39" s="2">
         <f>D8</f>
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="I39" t="s">
         <v>36</v>
@@ -1574,9 +1538,9 @@
       <c r="G42" t="s">
         <v>38</v>
       </c>
-      <c r="H42" t="str">
+      <c r="H42">
         <f>C8</f>
-        <v>BASE MARGHERITA: Salame Milano - Funghi Chiodini - Scamorza - Brie</v>
+        <v>0</v>
       </c>
       <c r="I42" t="s">
         <v>36</v>
@@ -1619,9 +1583,9 @@
       <c r="G45" t="s">
         <v>35</v>
       </c>
-      <c r="H45" t="str">
+      <c r="H45">
         <f>B9</f>
-        <v>La Boe</v>
+        <v>0</v>
       </c>
       <c r="I45" t="s">
         <v>36</v>
@@ -1636,7 +1600,7 @@
       </c>
       <c r="H46" s="2">
         <f>D9</f>
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="I46" t="s">
         <v>36</v>
@@ -1683,9 +1647,9 @@
       <c r="G49" t="s">
         <v>38</v>
       </c>
-      <c r="H49" t="str">
+      <c r="H49">
         <f>C9</f>
-        <v>BASE ROSSA: Bufala fuori forno - Basilico - Olio di Oliva</v>
+        <v>0</v>
       </c>
       <c r="I49" t="s">
         <v>36</v>
@@ -1732,9 +1696,9 @@
       <c r="G52" t="s">
         <v>35</v>
       </c>
-      <c r="H52" t="str">
+      <c r="H52">
         <f>B10</f>
-        <v>La Crossfit</v>
+        <v>0</v>
       </c>
       <c r="I52" t="s">
         <v>36</v>
@@ -1755,7 +1719,7 @@
       </c>
       <c r="H53" s="2">
         <f>D10</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I53" t="s">
         <v>36</v>
@@ -1802,9 +1766,9 @@
       <c r="G56" t="s">
         <v>38</v>
       </c>
-      <c r="H56" t="str">
+      <c r="H56">
         <f>C10</f>
-        <v>BASE BIANCA con Farina Grano Khorasan: Stracchino - Bresaola - Grana - Pinoli</v>
+        <v>0</v>
       </c>
       <c r="I56" t="s">
         <v>36</v>
@@ -2495,13 +2459,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B94:D95"/>
     <mergeCell ref="B99:D100"/>
     <mergeCell ref="B109:D110"/>
     <mergeCell ref="B23:D24"/>
     <mergeCell ref="B45:D46"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B94:D95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Utils/menuExcToHtml.xlsx
+++ b/Utils/menuExcToHtml.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bedoz\Desktop\CodingProjects\VCwebsite\Utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0741D1E4-86AD-49AD-8DFB-4EFD1EC110AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8616F11-FC9E-4215-9CDB-63C7A2712791}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27105" windowHeight="12810" xr2:uid="{F80E1D2D-14DA-476C-BCA4-096EF2662374}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="191">
   <si>
     <t>Le Classiche</t>
   </si>
@@ -553,6 +553,51 @@
   </si>
   <si>
     <t>Pizza con farina Grano Khorasan</t>
+  </si>
+  <si>
+    <t>Pizze del Mese</t>
+  </si>
+  <si>
+    <t>Novembre</t>
+  </si>
+  <si>
+    <t>Dicembre</t>
+  </si>
+  <si>
+    <t>Gennaio</t>
+  </si>
+  <si>
+    <t>Febbraio</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Aprile</t>
+  </si>
+  <si>
+    <t>Maggio</t>
+  </si>
+  <si>
+    <t>Giugno</t>
+  </si>
+  <si>
+    <t>Luglio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Settembre</t>
+  </si>
+  <si>
+    <t>Ottobre</t>
+  </si>
+  <si>
+    <t>BASE CREMA DI BROCCOLI: Mozzarella - Scamorza - Lardo in concia</t>
+  </si>
+  <si>
+    <t>BASE MARGHERITA: Cardi di Cervia - Brie - Alici</t>
   </si>
 </sst>
 </file>
@@ -644,11 +689,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -964,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597202A8-C792-4049-8C78-72759020BD37}">
-  <dimension ref="B1:I114"/>
+  <dimension ref="A1:I149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,17 +1026,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
@@ -1214,19 +1259,19 @@
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
       <c r="F23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
       <c r="G24" t="s">
         <v>35</v>
       </c>
@@ -1575,11 +1620,11 @@
       </c>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
       <c r="G45" t="s">
         <v>35</v>
       </c>
@@ -1592,9 +1637,9 @@
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
       <c r="G46" t="s">
         <v>37</v>
       </c>
@@ -2269,16 +2314,16 @@
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="7" t="s">
@@ -2314,16 +2359,16 @@
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B100" s="11"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="7" t="s">
@@ -2414,16 +2459,16 @@
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
@@ -2441,7 +2486,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B113" s="7" t="s">
         <v>174</v>
       </c>
@@ -2449,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B114" s="7" t="s">
         <v>175</v>
       </c>
@@ -2457,8 +2502,272 @@
         <v>1</v>
       </c>
     </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>18</v>
+      </c>
+      <c r="B119" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>18</v>
+      </c>
+      <c r="B120" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>19</v>
+      </c>
+      <c r="B121" t="s">
+        <v>179</v>
+      </c>
+      <c r="C121" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>19</v>
+      </c>
+      <c r="B122" t="s">
+        <v>180</v>
+      </c>
+      <c r="C122" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>19</v>
+      </c>
+      <c r="B123" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>19</v>
+      </c>
+      <c r="B124" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>19</v>
+      </c>
+      <c r="B125" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>19</v>
+      </c>
+      <c r="B126" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>19</v>
+      </c>
+      <c r="B127" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>19</v>
+      </c>
+      <c r="B128" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>19</v>
+      </c>
+      <c r="B129" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>19</v>
+      </c>
+      <c r="B130" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>19</v>
+      </c>
+      <c r="B131" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>19</v>
+      </c>
+      <c r="B132" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>20</v>
+      </c>
+      <c r="B133" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>20</v>
+      </c>
+      <c r="B134" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>20</v>
+      </c>
+      <c r="B135" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>20</v>
+      </c>
+      <c r="B136" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>20</v>
+      </c>
+      <c r="B137" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>20</v>
+      </c>
+      <c r="B138" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>20</v>
+      </c>
+      <c r="B139" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>20</v>
+      </c>
+      <c r="B140" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>20</v>
+      </c>
+      <c r="B141" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>20</v>
+      </c>
+      <c r="B142" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>20</v>
+      </c>
+      <c r="B143" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>20</v>
+      </c>
+      <c r="B144" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>21</v>
+      </c>
+      <c r="B145" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>21</v>
+      </c>
+      <c r="B146" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>21</v>
+      </c>
+      <c r="B147" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>21</v>
+      </c>
+      <c r="B148" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B117:D118"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="B94:D95"/>
     <mergeCell ref="B99:D100"/>
